--- a/Tools/本地数据表/DTRoleAnimation.xlsx
+++ b/Tools/本地数据表/DTRoleAnimation.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\StudyFramework\Tools\本地数据表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="8070"/>
+    <workbookView windowWidth="17205" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>GroupId</t>
+  </si>
+  <si>
+    <t>AnimPath</t>
+  </si>
+  <si>
+    <t>InitLoad</t>
+  </si>
+  <si>
+    <t>Expire</t>
+  </si>
   <si>
     <t>int</t>
   </si>
@@ -29,10 +42,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Desc</t>
+    <t>byte</t>
   </si>
   <si>
     <t>编号</t>
@@ -41,170 +51,209 @@
     <t>描述</t>
   </si>
   <si>
-    <t>GroupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>动画组ID</t>
   </si>
   <si>
     <t>动画路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitLoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>初始加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过期时间(秒)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动画组ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Attack_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animation/Tianshan_001/Attack_02</t>
   </si>
   <si>
     <t>Animation/Tianshan_001/Attack_03</t>
   </si>
   <si>
-    <t>Animation/Tianshan_001/Attack_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Animation/Tianshan_001/Dash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Dead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Die</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Fastrun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Fastrun_Left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Fastrun_Right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Jump_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Jump_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Jump_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Jump_End_Stand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Marry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Ride_Back_Run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Ride_Back_Stand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Ride_Run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Ride_Stand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Skill_Shengsifu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Skill_Tianshanliuyangzhang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Skill_Tianshanzhemeishou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Skill_Xp_Bahuangliuhe_End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Skill_Xp_Bahuangliuhe_Loop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Skill_Xp_Bahuangliuhe_Start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Skill_Xuehualiuchu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Skill_Yihuajiemu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Skill_Yingdun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Animation/Tianshan_001/Stand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Attack_01</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Attack_02</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Attack_03</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Dash</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Dead</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Die</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Fastrun</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Fastrun_Left</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Fastrun_Right</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Hit</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Jump_01</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Jump_02</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Jump_03</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Jump_End_Stand</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Marry</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Ride_Back_Run</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Ride_Back_Stand</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Ride_Run</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Ride_Stand</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Run</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Skill_Shengsifu</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Skill_Tianshanliuyangzhang</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Skill_Tianshanzhemeishou</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Skill_Xp_Bahuangliuhe_End</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Skill_Xp_Bahuangliuhe_Loop</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Skill_Xp_Bahuangliuhe_Start</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Skill_Xuehualiuchu</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Skill_Yihuajiemu</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Skill_Yingdun</t>
+  </si>
+  <si>
+    <t>Animation/Xiaoyao_001/Stand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,20 +262,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -234,9 +608,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -251,85 +867,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -340,10 +932,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="979797"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="202020"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -378,7 +970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,7 +1005,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -616,20 +1208,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="27.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.625" style="1" customWidth="1"/>
@@ -640,67 +1233,67 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>100001</v>
       </c>
@@ -708,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -717,7 +1310,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>100002</v>
       </c>
@@ -725,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -734,7 +1327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>100003</v>
       </c>
@@ -751,7 +1344,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>100004</v>
       </c>
@@ -759,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -768,7 +1361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>100005</v>
       </c>
@@ -776,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -785,7 +1378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>100006</v>
       </c>
@@ -793,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -802,7 +1395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>100007</v>
       </c>
@@ -810,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -819,7 +1412,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>100008</v>
       </c>
@@ -827,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -836,7 +1429,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>100009</v>
       </c>
@@ -844,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -853,7 +1446,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>100010</v>
       </c>
@@ -861,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -870,7 +1463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>100011</v>
       </c>
@@ -878,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -887,7 +1480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>100012</v>
       </c>
@@ -895,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -904,7 +1497,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>100013</v>
       </c>
@@ -912,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -921,7 +1514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>100014</v>
       </c>
@@ -929,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -938,7 +1531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>100015</v>
       </c>
@@ -946,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -955,7 +1548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>100016</v>
       </c>
@@ -963,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -972,7 +1565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>100017</v>
       </c>
@@ -980,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -989,7 +1582,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>100018</v>
       </c>
@@ -997,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1006,7 +1599,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>100019</v>
       </c>
@@ -1014,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -1023,7 +1616,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>100020</v>
       </c>
@@ -1031,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1040,7 +1633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>100021</v>
       </c>
@@ -1048,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1057,7 +1650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>100022</v>
       </c>
@@ -1065,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -1074,7 +1667,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>100023</v>
       </c>
@@ -1082,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -1091,7 +1684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>100024</v>
       </c>
@@ -1099,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -1108,7 +1701,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>100025</v>
       </c>
@@ -1116,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -1125,7 +1718,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>100026</v>
       </c>
@@ -1133,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -1142,7 +1735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>100027</v>
       </c>
@@ -1150,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -1159,7 +1752,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>100028</v>
       </c>
@@ -1167,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -1176,7 +1769,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>100029</v>
       </c>
@@ -1184,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -1193,7 +1786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>100030</v>
       </c>
@@ -1201,43 +1794,559 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>100031</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>100032</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>100033</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>100034</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>100035</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>100036</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>100037</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>100038</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>100039</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>100040</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>100041</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>100042</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>100043</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>100044</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>100045</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>100046</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>100047</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>100048</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>100049</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>100050</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>100051</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>100052</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>100053</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>100054</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>100055</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>100056</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>100057</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>100058</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>100059</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>100060</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>